--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F11r-Jam2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F11r-Jam2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.10858766666667</v>
+        <v>19.51877066666666</v>
       </c>
       <c r="H2">
-        <v>60.325763</v>
+        <v>58.556312</v>
       </c>
       <c r="I2">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349741</v>
       </c>
       <c r="J2">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349743</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.24999533333333</v>
+        <v>121.7032956666666</v>
       </c>
       <c r="N2">
-        <v>99.74998599999999</v>
+        <v>365.109887</v>
       </c>
       <c r="O2">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="P2">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="Q2">
-        <v>668.6104460765908</v>
+        <v>2375.498717495193</v>
       </c>
       <c r="R2">
-        <v>6017.494014689318</v>
+        <v>21379.48845745674</v>
       </c>
       <c r="S2">
-        <v>0.5239140831929391</v>
+        <v>0.7624697396626944</v>
       </c>
       <c r="T2">
-        <v>0.5239140831929391</v>
+        <v>0.7624697396626944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.10858766666667</v>
+        <v>19.51877066666666</v>
       </c>
       <c r="H3">
-        <v>60.325763</v>
+        <v>58.556312</v>
       </c>
       <c r="I3">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349741</v>
       </c>
       <c r="J3">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349743</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>69.907319</v>
       </c>
       <c r="O3">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="P3">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="Q3">
-        <v>468.5791508843775</v>
+        <v>454.8349758275031</v>
       </c>
       <c r="R3">
-        <v>4217.212357959397</v>
+        <v>4093.514782447528</v>
       </c>
       <c r="S3">
-        <v>0.3671722715064976</v>
+        <v>0.1459895149825043</v>
       </c>
       <c r="T3">
-        <v>0.3671722715064976</v>
+        <v>0.1459895149825043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.10858766666667</v>
+        <v>19.51877066666666</v>
       </c>
       <c r="H4">
-        <v>60.325763</v>
+        <v>58.556312</v>
       </c>
       <c r="I4">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349741</v>
       </c>
       <c r="J4">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349743</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.164378</v>
       </c>
       <c r="O4">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="P4">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="Q4">
-        <v>41.31897847449045</v>
+        <v>40.10702682821511</v>
       </c>
       <c r="R4">
-        <v>371.870806270414</v>
+        <v>360.963241453936</v>
       </c>
       <c r="S4">
-        <v>0.03237699149476295</v>
+        <v>0.01287325228977555</v>
       </c>
       <c r="T4">
-        <v>0.03237699149476295</v>
+        <v>0.01287325228977555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.638447</v>
       </c>
       <c r="I5">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
       <c r="J5">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.24999533333333</v>
+        <v>121.7032956666666</v>
       </c>
       <c r="N5">
-        <v>99.74998599999999</v>
+        <v>365.109887</v>
       </c>
       <c r="O5">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="P5">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="Q5">
-        <v>7.076119923526888</v>
+        <v>25.90036800283211</v>
       </c>
       <c r="R5">
-        <v>63.68507931174199</v>
+        <v>233.103312025489</v>
       </c>
       <c r="S5">
-        <v>0.005544751662275409</v>
+        <v>0.008313305624138833</v>
       </c>
       <c r="T5">
-        <v>0.005544751662275409</v>
+        <v>0.008313305624138833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.638447</v>
       </c>
       <c r="I6">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
       <c r="J6">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.907319</v>
       </c>
       <c r="O6">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="P6">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="Q6">
         <v>4.959124232621445</v>
@@ -818,10 +818,10 @@
         <v>44.632118093593</v>
       </c>
       <c r="S6">
-        <v>0.003885902532662684</v>
+        <v>0.001591742455912095</v>
       </c>
       <c r="T6">
-        <v>0.003885902532662684</v>
+        <v>0.001591742455912095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.638447</v>
       </c>
       <c r="I7">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
       <c r="J7">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.164378</v>
       </c>
       <c r="O7">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="P7">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="Q7">
         <v>0.4372920712184444</v>
@@ -880,10 +880,10 @@
         <v>3.935628640966</v>
       </c>
       <c r="S7">
-        <v>0.0003426561399456634</v>
+        <v>0.0001403587251985803</v>
       </c>
       <c r="T7">
-        <v>0.0003426561399456633</v>
+        <v>0.0001403587251985803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>1.453784333333333</v>
       </c>
       <c r="H8">
-        <v>4.361352999999999</v>
+        <v>4.361353</v>
       </c>
       <c r="I8">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977624</v>
       </c>
       <c r="J8">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977625</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.24999533333333</v>
+        <v>121.7032956666666</v>
       </c>
       <c r="N8">
-        <v>99.74998599999999</v>
+        <v>365.109887</v>
       </c>
       <c r="O8">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="P8">
-        <v>0.5673360890306117</v>
+        <v>0.8275728186333362</v>
       </c>
       <c r="Q8">
-        <v>48.33832229900644</v>
+        <v>176.9303445552345</v>
       </c>
       <c r="R8">
-        <v>435.0449006910579</v>
+        <v>1592.373100997111</v>
       </c>
       <c r="S8">
-        <v>0.03787725417539724</v>
+        <v>0.05678977334650295</v>
       </c>
       <c r="T8">
-        <v>0.03787725417539724</v>
+        <v>0.05678977334650297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>1.453784333333333</v>
       </c>
       <c r="H9">
-        <v>4.361352999999999</v>
+        <v>4.361353</v>
       </c>
       <c r="I9">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977624</v>
       </c>
       <c r="J9">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977625</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>69.907319</v>
       </c>
       <c r="O9">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="P9">
-        <v>0.3976035140102714</v>
+        <v>0.1584547531793621</v>
       </c>
       <c r="Q9">
-        <v>33.87672171584522</v>
+        <v>33.87672171584523</v>
       </c>
       <c r="R9">
-        <v>304.8904954426069</v>
+        <v>304.890495442607</v>
       </c>
       <c r="S9">
-        <v>0.02654533997111114</v>
+        <v>0.01087349574094574</v>
       </c>
       <c r="T9">
-        <v>0.02654533997111114</v>
+        <v>0.01087349574094574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>1.453784333333333</v>
       </c>
       <c r="H10">
-        <v>4.361352999999999</v>
+        <v>4.361353</v>
       </c>
       <c r="I10">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977624</v>
       </c>
       <c r="J10">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977625</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.164378</v>
       </c>
       <c r="O10">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="P10">
-        <v>0.03506039695911681</v>
+        <v>0.01397242818730167</v>
       </c>
       <c r="Q10">
         <v>2.987225387048222</v>
@@ -1066,10 +1066,10 @@
         <v>26.885028483434</v>
       </c>
       <c r="S10">
-        <v>0.002340749324408195</v>
+        <v>0.0009588171723275445</v>
       </c>
       <c r="T10">
-        <v>0.002340749324408194</v>
+        <v>0.0009588171723275445</v>
       </c>
     </row>
   </sheetData>
